--- a/docs/assets/disciplinas/LOB1013.xlsx
+++ b/docs/assets/disciplinas/LOB1013.xlsx
@@ -79,7 +79,7 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>948230 - Francisco Sodero Toledo</t>
+    <t>6376612 - Daisy Rafaela da Silva</t>
   </si>
   <si>
     <t>Programa resumido:</t>

--- a/docs/assets/disciplinas/LOB1013.xlsx
+++ b/docs/assets/disciplinas/LOB1013.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Proporcionar aos estudantes dos cursos de Engenharia da EEL-USP a reflexão crítica sobre o pensamento filosófico e a evolução das ciências no mundo contemporâneo.</t>
+    <t>6376612 - Daisy Rafaela da Silva</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>6376612 - Daisy Rafaela da Silva</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Filosofia e epistemologia do conhecimento.  As ciências e a metodologia do conhecimento científico.  Modernidade e pós-modernidade. Questões éticas e sócio-ambiental.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,18 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Unidade primeira:  Filosofia e Ciência
- 1 - A filosofia
-2 -  Formas de conceber o conhecimento.  
- 2  Epistemologia do conhecimento científico
- 3 - A metodologia científica 
-Unidade Segunda: Reflexões sobre a ciência 
-1  Ciência:  Modernidade e pós-Modernidade
-2 - Ciência e ética
-3 - Ciência e a questão sócio-ambiental 
-4 - Ciência, tecnologia e sustentabilidade</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,33 +100,23 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>A média semestral e final dos alunos será composta por: Prova Semestral  (PS) e outros instrumentos (T) empregados na avaliação do aluno, valorizando a sua participação e colaboração nos trabalhos e atividades desenvolvidas individualmente e no Projeto de curso em equipe.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>(PS+T) / 2</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Trabalho escrito, com questionamento, envolvendo o conteúdo do programa 
 -   prova escrita</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1 - CAPRA, F. O Ponto de Mutação. São Paulo: Cultrix, 1986. 
-2 - CAPRA, F. A Teia da Vida.  São Paulo: Cultrix, 2003.
-3- CASTELLS,Manuel. O Poder da  Identidade. A Era da Informação: Economia, Sociedade Cultura. Vol. 2. Rio de Janeiro: Paz e      Terra, 1999. 
-4 -CERVO, Amado L.; BERVIAN, Pedro. A Metodologia Científica. São Paulo: Prentice      Hall, 2002. 
-5 - POPPER, Karl. R. A Lógica da Pesquisa Científica. São Paulo: Cutrix, 1959
-6 - RAMPAZZO, Lino. Metodologia Científica. São Paulo: Edições Loyola, 3ª ed. , 2005.
-7 - SANTOS, Boaventura de.  Um Discurso sobre as Ciências.  Porto, Portugal: Aforntamentos, 1997.
-8 - STEGMULLER,  W. A Filosofia Contemporânea. Vol. I e II, 1977.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -504,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -629,106 +604,98 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOB1013.xlsx
+++ b/docs/assets/disciplinas/LOB1013.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Proporcionar aos estudantes dos cursos de Engenharia da EEL-USP a reflexão crítica sobre o pensamento filosófico e a evolução das ciências no mundo contemporâneo.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>6376612 - Daisy Rafaela da Silva</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Filosofia e epistemologia do conhecimento.  As ciências e a metodologia do conhecimento científico.  Modernidade e pós-modernidade. Questões éticas e sócio-ambiental.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,18 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Unidade primeira:  Filosofia e Ciência
+ 1 - A filosofia
+2 -  Formas de conceber o conhecimento.  
+ 2  Epistemologia do conhecimento científico
+ 3 - A metodologia científica 
+Unidade Segunda: Reflexões sobre a ciência 
+1  Ciência:  Modernidade e pós-Modernidade
+2 - Ciência e ética
+3 - Ciência e a questão sócio-ambiental 
+4 - Ciência, tecnologia e sustentabilidade</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,23 +115,33 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>A média semestral e final dos alunos será composta por: Prova Semestral  (PS) e outros instrumentos (T) empregados na avaliação do aluno, valorizando a sua participação e colaboração nos trabalhos e atividades desenvolvidas individualmente e no Projeto de curso em equipe.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A média semestral e final dos alunos será composta por: Prova Semestral  (PS) e outros instrumentos (T) empregados na avaliação do aluno, valorizando a sua participação e colaboração nos trabalhos e atividades desenvolvidas individualmente e no Projeto de curso em equipe.</t>
+    <t>(PS+T) / 2</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
-  </si>
-  <si>
-    <t>(PS+T) / 2</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Trabalho escrito, com questionamento, envolvendo o conteúdo do programa 
 -   prova escrita</t>
+  </si>
+  <si>
+    <t>Bibliografia:</t>
+  </si>
+  <si>
+    <t>1 - CAPRA, F. O Ponto de Mutação. São Paulo: Cultrix, 1986. 
+2 - CAPRA, F. A Teia da Vida.  São Paulo: Cultrix, 2003.
+3- CASTELLS,Manuel. O Poder da  Identidade. A Era da Informação: Economia, Sociedade Cultura. Vol. 2. Rio de Janeiro: Paz e      Terra, 1999. 
+4 -CERVO, Amado L.; BERVIAN, Pedro. A Metodologia Científica. São Paulo: Prentice      Hall, 2002. 
+5 - POPPER, Karl. R. A Lógica da Pesquisa Científica. São Paulo: Cutrix, 1959
+6 - RAMPAZZO, Lino. Metodologia Científica. São Paulo: Edições Loyola, 3ª ed. , 2005.
+7 - SANTOS, Boaventura de.  Um Discurso sobre as Ciências.  Porto, Portugal: Aforntamentos, 1997.
+8 - STEGMULLER,  W. A Filosofia Contemporânea. Vol. I e II, 1977.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -479,13 +504,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -604,98 +629,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
